--- a/Data Table Filled_030719_with_image.xlsx
+++ b/Data Table Filled_030719_with_image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projects\Tobacco-IP-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0950F-7369-4631-8094-B7B6D8419329}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803087C9-DFD8-4459-B9B4-3DDF626ABD22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="30" windowWidth="10005" windowHeight="7590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMI" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="746">
   <si>
     <t>APP. NUMBER</t>
   </si>
@@ -2357,6 +2357,9 @@
   </si>
   <si>
     <t>Philip Morris (Pakistan) Limited</t>
+  </si>
+  <si>
+    <t>Product Type (1=cigarette; 2=Heated Tobacco Products; 3=ENDS; 4=other (eg accessory)</t>
   </si>
 </sst>
 </file>
@@ -14829,9 +14832,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14873,7 +14876,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>6</v>
+        <v>745</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>7</v>
